--- a/lab2/Таблицы и данные.xlsx
+++ b/lab2/Таблицы и данные.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\Desktop\NSU\2 COURSE\OPP\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\Desktop\NSU\2 COURSE\OPP\NSU_OPP\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55DB0A-02D8-4742-A7D6-A48C5FF257E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87581F03-19E5-4C47-AE78-C5B9E311FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Варианты:</t>
   </si>
   <si>
-    <t>Количество процессов</t>
-  </si>
-  <si>
     <t>Ускорение</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Размеры блоков</t>
+  </si>
+  <si>
+    <t>Количество потоков</t>
   </si>
 </sst>
 </file>
@@ -306,11 +306,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -321,10 +318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4545,8 +4545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4562,27 +4562,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="K1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="2">
@@ -4603,21 +4603,21 @@
       <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>1</v>
+      <c r="A3" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -4644,8 +4644,8 @@
         <f>F3/$B3*100</f>
         <v>100</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>8</v>
+      <c r="K3" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="L3" s="3">
         <v>5</v>
@@ -4661,7 +4661,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4687,14 +4687,14 @@
         <f t="shared" ref="H4:H5" si="3">F4/$B4*100</f>
         <v>87.779561589560899</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="3">
         <v>10</v>
       </c>
       <c r="M4" s="14">
         <v>9.1616879999999998</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="21">
         <v>8.3898069999999993</v>
       </c>
       <c r="O4" s="15">
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -4728,14 +4728,14 @@
         <f t="shared" si="3"/>
         <v>79.539659190131644</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="3">
         <v>25</v>
       </c>
       <c r="M5" s="14">
         <v>9.3552700000000009</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="21">
         <v>8.4928760000000008</v>
       </c>
       <c r="O5" s="15">
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="3">
         <v>8</v>
       </c>
@@ -4769,7 +4769,7 @@
         <f>F6/$B6*100</f>
         <v>60.442636792154424</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="3">
         <v>50</v>
       </c>
@@ -4784,7 +4784,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3">
         <v>12</v>
       </c>
